--- a/data/Excel/Team_Vitality_and_KOI_stats.xlsx
+++ b/data/Excel/Team_Vitality_and_KOI_stats.xlsx
@@ -472,32 +472,32 @@
       </c>
       <c r="E3" s="1" t="inlineStr">
         <is>
+          <t>Bind</t>
+        </is>
+      </c>
+      <c r="G3" s="1" t="inlineStr">
+        <is>
           <t>Breeze</t>
         </is>
       </c>
-      <c r="G3" s="1" t="inlineStr">
+      <c r="I3" s="1" t="inlineStr">
         <is>
           <t>Icebox</t>
         </is>
       </c>
-      <c r="I3" s="1" t="inlineStr">
+      <c r="K3" s="1" t="inlineStr">
+        <is>
+          <t>Lotus</t>
+        </is>
+      </c>
+      <c r="M3" s="1" t="inlineStr">
         <is>
           <t>Split</t>
         </is>
       </c>
-      <c r="K3" s="1" t="inlineStr">
+      <c r="O3" s="1" t="inlineStr">
         <is>
           <t>Sunset</t>
-        </is>
-      </c>
-      <c r="M3" s="1" t="inlineStr">
-        <is>
-          <t>Bind</t>
-        </is>
-      </c>
-      <c r="O3" s="1" t="inlineStr">
-        <is>
-          <t>Lotus</t>
         </is>
       </c>
     </row>
@@ -655,10 +655,10 @@
         </is>
       </c>
       <c r="O5" s="3" t="n">
-        <v/>
+        <v>0</v>
       </c>
       <c r="P5" s="3" t="n">
-        <v/>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -733,10 +733,10 @@
         </is>
       </c>
       <c r="O6" s="3" t="n">
-        <v/>
+        <v>0</v>
       </c>
       <c r="P6" s="3" t="n">
-        <v/>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -811,10 +811,10 @@
         </is>
       </c>
       <c r="O7" s="3" t="n">
-        <v/>
+        <v>0</v>
       </c>
       <c r="P7" s="3" t="n">
-        <v/>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -889,10 +889,10 @@
         </is>
       </c>
       <c r="O8" s="3" t="n">
-        <v/>
+        <v>0</v>
       </c>
       <c r="P8" s="3" t="n">
-        <v/>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -967,10 +967,10 @@
         </is>
       </c>
       <c r="O9" s="3" t="n">
-        <v/>
+        <v>0</v>
       </c>
       <c r="P9" s="3" t="n">
-        <v/>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -1025,10 +1025,10 @@
         </is>
       </c>
       <c r="K10" s="3" t="n">
-        <v/>
+        <v>0</v>
       </c>
       <c r="L10" s="3" t="n">
-        <v/>
+        <v>0</v>
       </c>
       <c r="M10" s="3" t="inlineStr">
         <is>
@@ -1103,10 +1103,10 @@
         </is>
       </c>
       <c r="K11" s="3" t="n">
-        <v/>
+        <v>0</v>
       </c>
       <c r="L11" s="3" t="n">
-        <v/>
+        <v>0</v>
       </c>
       <c r="M11" s="3" t="inlineStr">
         <is>
@@ -1181,10 +1181,10 @@
         </is>
       </c>
       <c r="K12" s="3" t="n">
-        <v/>
+        <v>0</v>
       </c>
       <c r="L12" s="3" t="n">
-        <v/>
+        <v>0</v>
       </c>
       <c r="M12" s="3" t="inlineStr">
         <is>
@@ -1259,10 +1259,10 @@
         </is>
       </c>
       <c r="K13" s="3" t="n">
-        <v/>
+        <v>0</v>
       </c>
       <c r="L13" s="3" t="n">
-        <v/>
+        <v>0</v>
       </c>
       <c r="M13" s="3" t="inlineStr">
         <is>
@@ -1337,10 +1337,10 @@
         </is>
       </c>
       <c r="K14" s="3" t="n">
-        <v/>
+        <v>0</v>
       </c>
       <c r="L14" s="3" t="n">
-        <v/>
+        <v>0</v>
       </c>
       <c r="M14" s="3" t="inlineStr">
         <is>
